--- a/App_pressing_Loreau/Resources/PatternExcel/LogPattern.xlsx
+++ b/App_pressing_Loreau/Resources/PatternExcel/LogPattern.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="300" windowWidth="18495" windowHeight="11700"/>
@@ -15,9 +15,17 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Nombre de logs</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,13 +62,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Bureau">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -98,9 +114,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Bureau">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -132,9 +148,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -166,9 +183,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Bureau">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -341,38 +359,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/App_pressing_Loreau/Resources/PatternExcel/LogPattern.xlsx
+++ b/App_pressing_Loreau/Resources/PatternExcel/LogPattern.xlsx
@@ -360,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -371,8 +371,11 @@
     <col min="1" max="1" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
         <v>0</v>
       </c>
     </row>

--- a/App_pressing_Loreau/Resources/PatternExcel/LogPattern.xlsx
+++ b/App_pressing_Loreau/Resources/PatternExcel/LogPattern.xlsx
@@ -16,9 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Nombre de logs</t>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Nb log</t>
+  </si>
+  <si>
+    <t>message</t>
   </si>
 </sst>
 </file>
@@ -360,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -373,10 +379,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/App_pressing_Loreau/Resources/PatternExcel/LogPattern.xlsx
+++ b/App_pressing_Loreau/Resources/PatternExcel/LogPattern.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="300" windowWidth="18495" windowHeight="11700"/>
@@ -11,12 +11,12 @@
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Type</t>
   </si>
@@ -26,12 +26,18 @@
   <si>
     <t>message</t>
   </si>
+  <si>
+    <t>Complement</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,7 +54,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -56,12 +62,82 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -80,7 +156,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -122,7 +198,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -154,10 +230,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -189,7 +264,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -365,47 +439,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="91.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="80.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="2"/>
+    <col min="6" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="4">
         <v>0</v>
       </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" s="1" customFormat="1">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -413,12 +502,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
